--- a/docs/dev/plans/Gantt.xlsx
+++ b/docs/dev/plans/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522EE417-9360-423D-A5C4-CC38747E93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D744898-2AB7-4518-B170-9B793879F30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="4080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektisuunnitelma" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Valitse korostettava jakso oikealla.  Seuraavassa on kaaviota kuvaava selite.</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>api(tuotteen lisäys)</t>
+  </si>
+  <si>
+    <t>Admin paneeli</t>
   </si>
 </sst>
 </file>
@@ -563,6 +566,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -572,9 +587,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -589,15 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1009,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1049,68 +1052,68 @@
         <v>53</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="28"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="30"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="33"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="30"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="33"/>
       <c r="AJ2" s="19"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1137,7 +1140,7 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1332,13 +1335,13 @@
         <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1352,14 +1355,16 @@
         <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="7">
+        <v>53</v>
+      </c>
       <c r="G6" s="8">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1370,14 +1375,16 @@
         <v>47</v>
       </c>
       <c r="D7" s="7">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
-        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,8 +1400,12 @@
       <c r="E8" s="7">
         <v>49</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="7">
+        <v>53</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1404,61 +1415,77 @@
         <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7">
         <v>49</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="7">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="7">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7">
-        <v>49</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="7">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7">
-        <v>49</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="F12" s="7">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -1473,8 +1500,12 @@
       <c r="E13" s="7">
         <v>49</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="7">
+        <v>49</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
@@ -1489,8 +1520,12 @@
       <c r="E14" s="7">
         <v>49</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="7">
+        <v>49</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
@@ -1505,8 +1540,12 @@
       <c r="E15" s="7">
         <v>49</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -1521,8 +1560,12 @@
       <c r="E16" s="7">
         <v>49</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="7">
+        <v>53</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
@@ -1548,77 +1591,97 @@
         <v>48</v>
       </c>
       <c r="D19" s="7">
+        <v>52</v>
+      </c>
+      <c r="E19" s="7">
         <v>48</v>
       </c>
-      <c r="E19" s="7">
-        <v>49</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="7">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7">
         <v>49</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="7">
+        <v>51</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7">
         <v>49</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="7">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="7">
-        <v>49</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="7">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="7">
-        <v>49</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="7">
+        <v>50</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -1629,12 +1692,24 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>51</v>
+      </c>
+      <c r="E25" s="7">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7">
+        <v>53</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
@@ -1678,17 +1753,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AK2:AR2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
